--- a/document/pin_table.xlsx
+++ b/document/pin_table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mokhw\Desktop\GitHub\drone_with_gyroscopic_guard\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mokhw\Desktop\GitHub\drone_with_gyroscopic_guard\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5B3057-9C77-44E3-89B5-5763468A083D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3588F60-8897-41C5-9049-E04D8E070042}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7680" windowWidth="16440" windowHeight="28440" xr2:uid="{4F745982-B486-48FE-9DAB-9FB25918655F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F745982-B486-48FE-9DAB-9FB25918655F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>LED1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,7 +239,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GPIO_EXIT8</t>
+    <t>PB0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO_EXIT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -272,7 +276,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -400,13 +404,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -416,43 +451,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -769,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232A005D-6274-462F-87D0-2112C2B88AE5}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -784,48 +840,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -834,199 +890,211 @@
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="20" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="9" t="s">
+    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="9" t="s">
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="9" t="s">
+    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="11" t="s">
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="D16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D17" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="9" t="s">
+    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D18" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="9" t="s">
+    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D19" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="11" t="s">
+    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D20" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="5">
+      <c r="B21" s="15"/>
+      <c r="C21" s="14">
         <v>19</v>
       </c>
-      <c r="D20" s="15"/>
+      <c r="D21" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:B20"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="D1:D4"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A6:A10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
